--- a/biology/Médecine/Syndrome_de_Prune_Belly/Syndrome_de_Prune_Belly.xlsx
+++ b/biology/Médecine/Syndrome_de_Prune_Belly/Syndrome_de_Prune_Belly.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome du prune belly est l'association d'une aplasie des muscles de la paroi abdominale avec des anomalies obstructives basses du tractus urinaire entraînant une méga-vessie associée à une cryptorchidie bilatérale.
 </t>
@@ -511,13 +523,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La dénomination de prune belly vient de l'aspect que peut prendre le ventre du nouveau-né atteint de ce syndrome ; prune signifiant « pruneau » et belly « ventre » en anglais.
-Autres noms de la maladie
-Syndrome de Eagle-Barre
-Syndrome d'Obrinsky
-Syndrome de Fröhlich</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dénomination de prune belly vient de l'aspect que peut prendre le ventre du nouveau-né atteint de ce syndrome ; prune signifiant « pruneau » et belly « ventre » en anglais.
+</t>
         </is>
       </c>
     </row>
@@ -542,13 +553,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Étiologie</t>
+          <t>Étymologie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inconnue.
-</t>
+          <t>Autres noms de la maladie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Syndrome de Eagle-Barre
+Syndrome d'Obrinsky
+Syndrome de Fröhlich</t>
         </is>
       </c>
     </row>
@@ -573,10 +591,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inconnue.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Prune_Belly</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Prune_Belly</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Incidence et Prévalence</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La prévalence est estimée à une naissance sur 40 000. Cette maladie n'atteint presque exclusivement que les garçons.
 Seuls 2 % des malades sont des filles.
@@ -584,37 +637,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Syndrome_de_Prune_Belly</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Prune_Belly</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le syndrome de Prune Belly est l'association d'une aplasie des muscles de la paroi abdominale avec des anomalies obstructives basses du tractus urinaire entraînant une méga-vessie associée à une cryptorchidie bilatérale.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -636,13 +658,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Diagnostic</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clinique
-Association d'anomalies du tractus urinaire (cryptorchidie, dilatation vésicale et uréthrale) et d'une absence de la paroi musculaire abdominale antérieure à la vessie.
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le syndrome de Prune Belly est l'association d'une aplasie des muscles de la paroi abdominale avec des anomalies obstructives basses du tractus urinaire entraînant une méga-vessie associée à une cryptorchidie bilatérale.
 </t>
         </is>
       </c>
@@ -668,12 +691,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Traitement</t>
+          <t>Diagnostic</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Des actions pour ralentir la progression de l'insuffisance rénale et pour traiter les complications inhérentes à cette pathologie doivent être réalisées. Une fois que le malade est en phase d'insuffisance rénale sévère terminale, il est dialysé jusqu'à ce que la greffe de rein soit possible.
+          <t>Clinique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Association d'anomalies du tractus urinaire (cryptorchidie, dilatation vésicale et uréthrale) et d'une absence de la paroi musculaire abdominale antérieure à la vessie.
 </t>
         </is>
       </c>
@@ -699,12 +728,14 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Mode de transmission</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'y a aucun mode de transmission connu actuellement.
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des actions pour ralentir la progression de l'insuffisance rénale et pour traiter les complications inhérentes à cette pathologie doivent être réalisées. Une fois que le malade est en phase d'insuffisance rénale sévère terminale, il est dialysé jusqu'à ce que la greffe de rein soit possible.
 </t>
         </is>
       </c>
@@ -730,13 +761,51 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Mode de transmission</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'y a aucun mode de transmission connu actuellement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Syndrome_de_Prune_Belly</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Syndrome_de_Prune_Belly</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Conseil génétique</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dépistage prénatal
-Il est possible de dépister le syndrome dès les premiers mois de grossesse (peu ou très peu de liquide amniotique). À l'aide d'une échographie et bien d'autres examens, les médecins parviennent à établir le diagnostic
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Dépistage prénatal</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est possible de dépister le syndrome dès les premiers mois de grossesse (peu ou très peu de liquide amniotique). À l'aide d'une échographie et bien d'autres examens, les médecins parviennent à établir le diagnostic
 </t>
         </is>
       </c>
